--- a/Document/dababase.xlsx
+++ b/Document/dababase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DuAn\QuanLyBanHang\trunk\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Duan_2017\VTNN\trunk\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hệ Thống" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,235 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Da</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
+  <si>
+    <t>Khách Hàng(tbl_DM_Khach_Hang)</t>
+  </si>
+  <si>
+    <t>Auto_ID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Ma_Khach_Hang</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Mã Khách Hàng</t>
+  </si>
+  <si>
+    <t>Ten_Khach_Hang</t>
+  </si>
+  <si>
+    <t>nvarchar(250)</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>PK( tự tăng)</t>
+  </si>
+  <si>
+    <t>So_Dien_Thoai</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Dia_Chi</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ma_So_Thue</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Created_By</t>
+  </si>
+  <si>
+    <t>Last_Updated</t>
+  </si>
+  <si>
+    <t>Last_Updated_By</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>Người tạo</t>
+  </si>
+  <si>
+    <t>Ngày cập nhật</t>
+  </si>
+  <si>
+    <t>Người cập nhật</t>
+  </si>
+  <si>
+    <t>Còn quản lý</t>
+  </si>
+  <si>
+    <t>Loai_Khach_Hang_ID</t>
+  </si>
+  <si>
+    <t>Loại khách hàng</t>
+  </si>
+  <si>
+    <t>Loại Khách Hàng (tbl_DM_Loai_Khach_Hang)</t>
+  </si>
+  <si>
+    <t>PK (Tự tăng)</t>
+  </si>
+  <si>
+    <t>Ma_Loai</t>
+  </si>
+  <si>
+    <t>Ten_Loai</t>
+  </si>
+  <si>
+    <t>Mã loại khách hàng</t>
+  </si>
+  <si>
+    <t>Tên loại khách hàng</t>
+  </si>
+  <si>
+    <t>Nhà Cung Cấp( tbl_DM_Nha_Cung_Cap)</t>
+  </si>
+  <si>
+    <t>Ma_Nha_Cung_Cap</t>
+  </si>
+  <si>
+    <t>Ten_Nha_Cap</t>
+  </si>
+  <si>
+    <t>Dien_Thoai</t>
+  </si>
+  <si>
+    <t>Di_Dong</t>
+  </si>
+  <si>
+    <t>Nguoi_Lien_He</t>
+  </si>
+  <si>
+    <t>PK( Tự tăng)</t>
+  </si>
+  <si>
+    <t>Mã nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Di động</t>
+  </si>
+  <si>
+    <t>Người liên hệ</t>
+  </si>
+  <si>
+    <t>Kho hàng ( tbl_DM_Kho)</t>
+  </si>
+  <si>
+    <t>Ma_Kho</t>
+  </si>
+  <si>
+    <t>Mã kho</t>
+  </si>
+  <si>
+    <t>Ten_Kho</t>
+  </si>
+  <si>
+    <t>Tên Kho</t>
+  </si>
+  <si>
+    <t>Nhan_Vien_Quan_Ly_ID</t>
+  </si>
+  <si>
+    <t>Nhân viên quản lý</t>
+  </si>
+  <si>
+    <t>Nhóm hàng hóa(tbl_Nhom_Hang_Hoa)</t>
+  </si>
+  <si>
+    <t>Ma_Nhom_Hang</t>
+  </si>
+  <si>
+    <t>Ten_Nhom_Hang</t>
+  </si>
+  <si>
+    <t>Ghi_Chu</t>
+  </si>
+  <si>
+    <t>Mã nhóm hàng</t>
+  </si>
+  <si>
+    <t>Tên nhóm hàng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Đơn Vị Tính ( tbl_DM_Don_Vi_Tinh)</t>
+  </si>
+  <si>
+    <t>PK ( Tự tăng)</t>
+  </si>
+  <si>
+    <t>Ma_Don_Vi_Tinh</t>
+  </si>
+  <si>
+    <t>Mã đơn vị tính</t>
+  </si>
+  <si>
+    <t>Ten_Don_Vi_Tinh</t>
+  </si>
+  <si>
+    <t>Tên đơn vị tính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,12 +278,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -360,21 +688,812 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="J19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J19:L19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
